--- a/biology/Botanique/Hamamelidaceae/Hamamelidaceae.xlsx
+++ b/biology/Botanique/Hamamelidaceae/Hamamelidaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Les Hamamelidaceae (Hamamélidacées) forment une famille de plantes dicotylédones qui comprend 80 espèces réparties en 25 genres.
-Ce sont des arbres, ou des arbustes, à feuilles persistantes ou caduques, alternes, des régions tempérées à tropicales. La fleur est régulière composée d'un calice (4 ou 5 sépales) et d'une corolle (4 ou 5 pétales) distincte. Toutefois, chez certaines espèces les sépales et les pétales sont indifférenciées et l'on compte alors 4 à 7 tépales. Parfois enfin, les fleurs sont nues, sans pétales ni sépales[1].
+Ce sont des arbres, ou des arbustes, à feuilles persistantes ou caduques, alternes, des régions tempérées à tropicales. La fleur est régulière composée d'un calice (4 ou 5 sépales) et d'une corolle (4 ou 5 pétales) distincte. Toutefois, chez certaines espèces les sépales et les pétales sont indifférenciées et l'on compte alors 4 à 7 tépales. Parfois enfin, les fleurs sont nues, sans pétales ni sépales.
 </t>
         </is>
       </c>
@@ -512,7 +524,9 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Le nom vient du genre-type Hamamelis αμαμελής / amamelís, nom grec de l'Orme blanc, Ulmus glabra (Ulmaceae).
 </t>
@@ -543,7 +557,9 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">La classification phylogénétique situe cette famille dans l'ordre des Saxifragales.
 </t>
@@ -574,7 +590,9 @@
           <t>Liste des genres</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Chunia
 Corylopsis ; (environ 30 espèces ; Extrême-Orient)
@@ -604,7 +622,7 @@
 Tetrathyrium
 Trichocladus
 Certains auteurs classent les Rhodoleia dans une famille propre, les Rhodoleiaceae, mais les recherches génétiques du Angiosperm Phylogeny Group montrent qu'il est préférable de le laisser dans les Hamamelidaceae. Les genres Altingia et Liquidambar, autrefois inclus dans la famille des Hamamelidaceae, sont à présent inclus dans la famille des Altingiaceae.
-Selon Catalogue of Life                                   (23 février 2018)[2] :
+Selon Catalogue of Life                                   (23 février 2018) :
 genre Chunia
 genre Corylopsis
 genre Dicoryphe
@@ -631,7 +649,7 @@
 genre Sinowilsonia
 genre Sycopsis
 genre Trichocladus
-Selon Angiosperm Phylogeny Website                        (23 février 2018)[3] :
+Selon Angiosperm Phylogeny Website                        (23 février 2018) :
 genre Chunia
 genre Corylopsis
 genre Dicoryphe
@@ -659,7 +677,7 @@
 genre Sycopsis
 genre Tetrathyrium
 genre Trichocladus
-Selon NCBI  (24 nov. 2018)[4] :
+Selon NCBI  (24 nov. 2018) :
 genre Chunia
 genre Corylopsis
 genre Dicoryphe
@@ -687,7 +705,7 @@
 genre Sycopsis
 genre Tetrathyrium
 genre Trichocladus
-Selon DELTA Angio           (23 février 2018)[5] :
+Selon DELTA Angio           (23 février 2018) :
 genre Chunia
 genre Corylopsis
 genre Dicoryphe
@@ -714,7 +732,7 @@
 genre Sycopsis
 genre Tetrathyrium
 genre Trichocladus
-Selon ITIS      (23 février 2018)[6] :
+Selon ITIS      (23 février 2018) :
 genre Corylopsis Siebold &amp; Zucc.
 genre Fothergilla L.
 genre Hamamelis L.
